--- a/biology/Médecine/1181_en_santé_et_médecine/1181_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1181_en_santé_et_médecine/1181_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1181_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1181_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1181 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1181_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1181_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Avant 1181 : fondation par Hughes du Puiset, prince-évêque de Durham en Angleterre, de l'hôpital de Sherburn (en), établissement destiné à « l'entretien de soixante-cinq pauvres lépreux[1] ».
-1181-1182 : fondation d'une léproserie de femmes à Lincoln en Angleterre[2].
-1167-1181 : institution d'une léproserie à Chièvres, en Hainaut, par Ève, dame du lieu[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Avant 1181 : fondation par Hughes du Puiset, prince-évêque de Durham en Angleterre, de l'hôpital de Sherburn (en), établissement destiné à « l'entretien de soixante-cinq pauvres lépreux ».
+1181-1182 : fondation d'une léproserie de femmes à Lincoln en Angleterre.
+1167-1181 : institution d'une léproserie à Chièvres, en Hainaut, par Ève, dame du lieu.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1181_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1181_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Janvier : Guilhem VIII, seigneur de Montpellier, « accorde à tout homme, quel qu'il soit ou quelle que soit son origine, le droit de tenir école à Montpellier[4] ».
-« Dès 1181, les frères hospitaliers de Saint-Jean de Jérusalem utilisent les services de « quatre médecins savants[5] » ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Janvier : Guilhem VIII, seigneur de Montpellier, « accorde à tout homme, quel qu'il soit ou quelle que soit son origine, le droit de tenir école à Montpellier ».
+« Dès 1181, les frères hospitaliers de Saint-Jean de Jérusalem utilisent les services de « quatre médecins savants » ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1181_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1181_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1181-1183 : fl. Gislebert, médecin à Foucarmont en Normandie, cité dans une charte de l'abbaye Saint-Michel du Tréport[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1181-1183 : fl. Gislebert, médecin à Foucarmont en Normandie, cité dans une charte de l'abbaye Saint-Michel du Tréport.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1181_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1181_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1er avril : Romuald II (né vers 1115), archevêque de Salerne, « dont il est notoire qu'il fut médecin[7] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1er avril : Romuald II (né vers 1115), archevêque de Salerne, « dont il est notoire qu'il fut médecin ».
 </t>
         </is>
       </c>
